--- a/Projeto Final/backup/Mudancas_HTTP11.xlsx
+++ b/Projeto Final/backup/Mudancas_HTTP11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\TCC\Projeto Final\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -155,13 +155,185 @@
     <t>Content-MD5</t>
   </si>
   <si>
+    <t>Pede para o servidor atualizar para outro protocolo</t>
+  </si>
+  <si>
+    <t>Identificador único de um conteúdo</t>
+  </si>
+  <si>
+    <t>WWW-Authenticate</t>
+  </si>
+  <si>
+    <t>Indica tipo de autenticação que deve ser utilizada para acessar entidade requerida</t>
+  </si>
+  <si>
+    <t>A forma de codificação usada para se transferir o conteúdo para o usuário</t>
+  </si>
+  <si>
+    <t>Faz a requisição de apenas uma parte de um conteúdo</t>
+  </si>
+  <si>
+    <t>Controla a conexão atual</t>
+  </si>
+  <si>
+    <t>Indica que o grupo de cabeçalhos está presente em uma mensagem</t>
+  </si>
+  <si>
+    <t>Indica o endereço e a porta do servidor que deve ser utilizado pela mensagem</t>
+  </si>
+  <si>
+    <t>Mensagem genérica de cuidado para possíveis problemas no corpo da mensagem</t>
+  </si>
+  <si>
+    <t>Se o conteúdo não foi modificado, envie a parte solicitada, se não, envie o conteúdo novo</t>
+  </si>
+  <si>
+    <t>Envie o conteúdo se, e somente se, ele não foi modificado na data esperada</t>
+  </si>
+  <si>
+    <t>Retorna código 304 se o conteúdo não foi modificado</t>
+  </si>
+  <si>
+    <t>Realize a ação requisitada se, e somente se, o conteúdo do cliente é igual ao conteúdo do servidor</t>
+  </si>
+  <si>
+    <t>Codificação binária de base-64 para verificar conteúdo da resposta</t>
+  </si>
+  <si>
+    <t>Lista de codificações aceitas</t>
+  </si>
+  <si>
+    <t>Requer informações sobre os recursos que o servidor suporta</t>
+  </si>
+  <si>
+    <t>Indica as multiplas opções disponíveis para o cliente</t>
+  </si>
+  <si>
+    <t>Indica que a requisição não pôde prosseguir por causa de um conflito</t>
+  </si>
+  <si>
+    <t>Indica que o conteúdo requisitado não está mais disponível e não estará disponível no futuro</t>
+  </si>
+  <si>
+    <t>Indica que o conteúdo que está sendo enviado é apenas uma parte de um todo</t>
+  </si>
+  <si>
+    <t>Utilizado para envie de conteúdo em partes</t>
+  </si>
+  <si>
+    <t>Indica que o conteúdo não deve ser acessado sem autenticação</t>
+  </si>
+  <si>
+    <t>Escolhe a melhor representação disponível para um conteúdo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O tempo que o conteúdo está salvo no </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proxy em segundos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notifica todos os mecanismos de </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cache </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>do cliente ao servidor se o conteúdo deve ser salvo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pede uma requisição de autenticação de um </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proxy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Credenciais de autorização para se conectar a um </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proxy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Informa o cliente sobre </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proxies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pelos quais a resposta passou</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Informa o servidor de </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="13"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -171,7 +343,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -181,41 +353,45 @@
     </r>
   </si>
   <si>
-    <t>Pede para o servidor atualizar para outro protocolo</t>
-  </si>
-  <si>
-    <t>Identificador único de um conteúdo</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pede uma requisição de autenticação de um </t>
+    <r>
+      <t xml:space="preserve">Determina qual é o tempo máximo que um conteúdo deve ficar salvo em </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>proxy</t>
-    </r>
-  </si>
-  <si>
-    <t>WWW-Authenticate</t>
-  </si>
-  <si>
-    <t>Indica tipo de autenticação que deve ser utilizada para acessar entidade requerida</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Informa o cliente sobre </t>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cache</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indica que o conteúdo não deve ser salvo em </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="13"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cache</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indica que o conteúdo não deve ser modificado por </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -223,125 +399,20 @@
       </rPr>
       <t>proxies</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pelos quais a resposta passou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Credenciais de autorização para se conectar a um </t>
+  </si>
+  <si>
+    <t>Confirma que o servidor recebeu o cabeçalho de requisição e que o cliente
+deve continuar a enviar a mensagem desejada</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O servidor está entregando apenas uma parte de um conteúdo por causa
+da etiqueta de </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>proxy</t>
-    </r>
-  </si>
-  <si>
-    <t>A forma de codificação usada para se transferir o conteúdo para o usuário</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O tempo que o conteúdo está salvo no </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>proxy em segundos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Notifica todos os mecanismos de </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">cache </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>do cliente ao servidor se o conteúdo deve ser salvo</t>
-    </r>
-  </si>
-  <si>
-    <t>Faz a requisição de apenas uma parte de um conteúdo</t>
-  </si>
-  <si>
-    <t>Controla a conexão atual</t>
-  </si>
-  <si>
-    <t>Indica que o grupo de cabeçalhos está presente em uma mensagem</t>
-  </si>
-  <si>
-    <t>Indica o endereço e a porta do servidor que deve ser utilizado pela mensagem</t>
-  </si>
-  <si>
-    <t>Mensagem genérica de cuidado para possíveis problemas no corpo da mensagem</t>
-  </si>
-  <si>
-    <t>Se o conteúdo não foi modificado, envie a parte solicitada, se não, envie o conteúdo novo</t>
-  </si>
-  <si>
-    <t>Envie o conteúdo se, e somente se, ele não foi modificado na data esperada</t>
-  </si>
-  <si>
-    <t>Retorna código 304 se o conteúdo não foi modificado</t>
-  </si>
-  <si>
-    <t>Realize a ação requisitada se, e somente se, o conteúdo do cliente é igual ao conteúdo do servidor</t>
-  </si>
-  <si>
-    <t>Codificação binária de base-64 para verificar conteúdo da resposta</t>
-  </si>
-  <si>
-    <t>Lista de codificações aceitas</t>
-  </si>
-  <si>
-    <t>Requer informações sobre os recursos que o servidor suporta</t>
-  </si>
-  <si>
-    <t>Confirma que o servidor recebeu o cabeçalho de requisição e que o cliente deve continuar a enviar a mensagem desejada</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O servidor está entregando apenas uma parte de um conteúdo por causa da etiqueta de </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -351,7 +422,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -361,79 +432,12 @@
     </r>
   </si>
   <si>
-    <t>Indica as multiplas opções disponíveis para o cliente</t>
-  </si>
-  <si>
-    <t>Indica que a requisição não pôde prosseguir por causa de um conflito</t>
-  </si>
-  <si>
-    <t>Indica que o conteúdo requisitado não está mais disponível e não estará disponível no futuro</t>
-  </si>
-  <si>
-    <t>Indica que o conteúdo que está sendo enviado é apenas uma parte de um todo</t>
-  </si>
-  <si>
-    <t>Utilizado para envie de conteúdo em partes</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Determina qual é o tempo máximo que um conteúdo deve ficar salvo em </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cache</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Indica que o conteúdo não deve ser salvo em </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cache</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Indica que o conteúdo não deve ser modificado por </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>proxies</t>
-    </r>
-  </si>
-  <si>
-    <t>Indica que o conteúdo não deve ser acessado sem autenticação</t>
-  </si>
-  <si>
-    <t>Após o termino de uma requisição HTTP a conexão continua aberta e pode ser utilizada por outras requisições</t>
-  </si>
-  <si>
-    <t>O cliente não precisa esperar que a resposta de uma requisição retorne antes de enviar outra requisição</t>
-  </si>
-  <si>
-    <t>Escolhe a melhor representação disponível para um conteúdo</t>
+    <t>Após o termino de uma requisição HTTP a conexão continua aberta
+e pode ser utilizada por outras requisições</t>
+  </si>
+  <si>
+    <t>O cliente não precisa esperar que a resposta de uma requisição
+retorne antes de enviar outra requisição</t>
   </si>
 </sst>
 </file>
@@ -449,7 +453,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -457,15 +469,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="13"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -473,7 +477,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -547,15 +551,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,6 +570,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,386 +856,386 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B48" sqref="A1:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="124.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="124.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="29" spans="1:2" ht="42" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>100</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="B29" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="42" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>206</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="B30" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>300</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>409</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>410</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="42" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="42" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1236,12 +1243,12 @@
     <sortCondition ref="A46"/>
   </sortState>
   <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
